--- a/development/L1Menu_Collisions2022_v1_1_0/PrescaleTable/L1Menu_Collisions2022_v1_1_0-RateStudy.xlsx
+++ b/development/L1Menu_Collisions2022_v1_1_0/PrescaleTable/L1Menu_Collisions2022_v1_1_0-RateStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2022_v1_1_0/PrescaleTable-RateStudies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D582C0F0-3B58-CE4B-A0CC-0742B58681EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C8BAA-C6FC-D142-A67A-BEC5E3052FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1800" yWindow="-19780" windowWidth="31100" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13040" yWindow="0" windowWidth="15760" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1598,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="I581" sqref="I581"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1629,7 +1629,9 @@
       <c r="G1" s="3">
         <v>1.7E+34</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="3">
+        <v>1.5999999999999999E+34</v>
+      </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
@@ -1655,6 +1657,9 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1676,6 +1681,9 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -1701,6 +1709,9 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1724,6 +1735,9 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1747,6 +1761,9 @@
       <c r="G6">
         <v>63000</v>
       </c>
+      <c r="H6">
+        <v>63000</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1770,6 +1787,9 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1793,6 +1813,9 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1816,6 +1839,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1839,6 +1865,9 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1862,6 +1891,9 @@
       <c r="G11">
         <v>22000</v>
       </c>
+      <c r="H11">
+        <v>22000</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1885,6 +1917,9 @@
       <c r="G12">
         <v>1700</v>
       </c>
+      <c r="H12">
+        <v>1700</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1908,6 +1943,9 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1931,6 +1969,9 @@
       <c r="G14">
         <v>200</v>
       </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1954,6 +1995,9 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1977,8 +2021,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2000,8 +2047,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2023,8 +2073,11 @@
       <c r="G18">
         <v>1300</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2046,8 +2099,11 @@
       <c r="G19">
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2069,8 +2125,11 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2092,8 +2151,11 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2115,8 +2177,11 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2129,17 +2194,20 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2152,17 +2220,20 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2175,17 +2246,20 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2198,17 +2272,20 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2230,8 +2307,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2253,8 +2333,11 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2276,8 +2359,11 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2299,8 +2385,11 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2322,8 +2411,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2345,8 +2437,11 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2368,8 +2463,11 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2391,8 +2489,11 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2414,8 +2515,11 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2437,8 +2541,11 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2460,8 +2567,11 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2483,8 +2593,11 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2506,8 +2619,11 @@
       <c r="G39">
         <v>1500</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2529,8 +2645,11 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2552,8 +2671,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2575,8 +2697,11 @@
       <c r="G42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2598,8 +2723,11 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2621,8 +2749,11 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2644,8 +2775,11 @@
       <c r="G45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2667,8 +2801,11 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2690,8 +2827,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2713,8 +2853,11 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2736,8 +2879,11 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2759,8 +2905,11 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2776,14 +2925,17 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51">
-        <v>0</v>
+      <c r="F51" s="5">
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2799,14 +2951,17 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
-        <v>0</v>
+      <c r="F52" s="5">
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2828,8 +2983,11 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2851,8 +3009,11 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2871,11 +3032,14 @@
       <c r="F55" s="5">
         <v>190</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="5">
+        <v>190</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2897,8 +3061,11 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2917,11 +3084,14 @@
       <c r="F57" s="5">
         <v>1</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2937,14 +3107,17 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2966,8 +3139,11 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2989,8 +3165,11 @@
       <c r="G60">
         <v>450</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3001,19 +3180,22 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3035,8 +3217,11 @@
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3058,8 +3243,11 @@
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3081,8 +3269,11 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3104,8 +3295,11 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3127,8 +3321,11 @@
       <c r="G66">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3150,8 +3347,11 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3173,8 +3373,11 @@
       <c r="G68">
         <v>800</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3196,8 +3399,11 @@
       <c r="G69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3219,8 +3425,11 @@
       <c r="G70">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3242,8 +3451,11 @@
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3265,8 +3477,11 @@
       <c r="G72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3288,8 +3503,11 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3311,8 +3529,11 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3334,8 +3555,11 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3351,14 +3575,17 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76">
-        <v>0</v>
+      <c r="F76" s="5">
+        <v>100</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3380,8 +3607,11 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3403,8 +3633,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3426,8 +3659,11 @@
       <c r="G79">
         <v>35</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3449,8 +3685,11 @@
       <c r="G80">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3472,8 +3711,11 @@
       <c r="G81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3495,8 +3737,11 @@
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3518,8 +3763,11 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3535,14 +3783,17 @@
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84">
-        <v>0</v>
+      <c r="F84" s="5">
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3558,14 +3809,17 @@
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85">
-        <v>0</v>
+      <c r="F85" s="5">
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3587,8 +3841,11 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3610,8 +3867,11 @@
       <c r="G87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3633,8 +3893,11 @@
       <c r="G88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3656,8 +3919,11 @@
       <c r="G89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3679,8 +3945,11 @@
       <c r="G90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3702,8 +3971,11 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3725,8 +3997,11 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3748,8 +4023,11 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3765,14 +4043,17 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94">
-        <v>0</v>
+      <c r="F94" s="5">
+        <v>1</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3788,14 +4069,17 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95">
-        <v>0</v>
+      <c r="F95" s="5">
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -3817,8 +4101,11 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -3840,8 +4127,11 @@
       <c r="G97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -3863,8 +4153,11 @@
       <c r="G98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -3886,8 +4179,11 @@
       <c r="G99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -3909,8 +4205,11 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -3932,8 +4231,11 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -3955,8 +4257,11 @@
       <c r="G102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>104</v>
       </c>
@@ -3978,8 +4283,11 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>105</v>
       </c>
@@ -4001,8 +4309,11 @@
       <c r="G104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>106</v>
       </c>
@@ -4024,8 +4335,11 @@
       <c r="G105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>107</v>
       </c>
@@ -4047,8 +4361,11 @@
       <c r="G106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>109</v>
       </c>
@@ -4070,8 +4387,11 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>110</v>
       </c>
@@ -4093,8 +4413,11 @@
       <c r="G108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -4116,8 +4439,11 @@
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -4139,8 +4465,11 @@
       <c r="G110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>119</v>
       </c>
@@ -4162,8 +4491,11 @@
       <c r="G111">
         <v>11000</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>121</v>
       </c>
@@ -4185,8 +4517,11 @@
       <c r="G112">
         <v>400</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>122</v>
       </c>
@@ -4208,8 +4543,11 @@
       <c r="G113">
         <v>256</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>123</v>
       </c>
@@ -4231,8 +4569,11 @@
       <c r="G114">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>124</v>
       </c>
@@ -4254,8 +4595,11 @@
       <c r="G115">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>125</v>
       </c>
@@ -4277,8 +4621,11 @@
       <c r="G116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>126</v>
       </c>
@@ -4300,8 +4647,11 @@
       <c r="G117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>128</v>
       </c>
@@ -4323,8 +4673,11 @@
       <c r="G118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>129</v>
       </c>
@@ -4346,8 +4699,11 @@
       <c r="G119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>131</v>
       </c>
@@ -4369,8 +4725,11 @@
       <c r="G120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>132</v>
       </c>
@@ -4392,8 +4751,11 @@
       <c r="G121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>134</v>
       </c>
@@ -4415,8 +4777,11 @@
       <c r="G122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>135</v>
       </c>
@@ -4438,8 +4803,11 @@
       <c r="G123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>136</v>
       </c>
@@ -4461,8 +4829,11 @@
       <c r="G124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>142</v>
       </c>
@@ -4484,8 +4855,11 @@
       <c r="G125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>143</v>
       </c>
@@ -4507,8 +4881,11 @@
       <c r="G126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>145</v>
       </c>
@@ -4530,8 +4907,11 @@
       <c r="G127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>146</v>
       </c>
@@ -4553,8 +4933,11 @@
       <c r="G128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>147</v>
       </c>
@@ -4576,8 +4959,11 @@
       <c r="G129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>148</v>
       </c>
@@ -4599,8 +4985,11 @@
       <c r="G130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>150</v>
       </c>
@@ -4622,8 +5011,11 @@
       <c r="G131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>151</v>
       </c>
@@ -4645,8 +5037,11 @@
       <c r="G132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>152</v>
       </c>
@@ -4668,8 +5063,11 @@
       <c r="G133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>159</v>
       </c>
@@ -4691,8 +5089,11 @@
       <c r="G134">
         <v>44000</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>160</v>
       </c>
@@ -4714,8 +5115,11 @@
       <c r="G135">
         <v>7600</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>161</v>
       </c>
@@ -4737,8 +5141,11 @@
       <c r="G136">
         <v>1350</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>162</v>
       </c>
@@ -4760,8 +5167,11 @@
       <c r="G137">
         <v>780</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>163</v>
       </c>
@@ -4783,8 +5193,11 @@
       <c r="G138">
         <v>45</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>164</v>
       </c>
@@ -4806,8 +5219,11 @@
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>165</v>
       </c>
@@ -4829,8 +5245,11 @@
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>166</v>
       </c>
@@ -4852,8 +5271,11 @@
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>167</v>
       </c>
@@ -4875,8 +5297,11 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>168</v>
       </c>
@@ -4898,8 +5323,11 @@
       <c r="G143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>169</v>
       </c>
@@ -4921,8 +5349,11 @@
       <c r="G144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>170</v>
       </c>
@@ -4944,8 +5375,11 @@
       <c r="G145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>171</v>
       </c>
@@ -4967,8 +5401,11 @@
       <c r="G146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>172</v>
       </c>
@@ -4990,8 +5427,11 @@
       <c r="G147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>173</v>
       </c>
@@ -5013,8 +5453,11 @@
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>174</v>
       </c>
@@ -5036,8 +5479,11 @@
       <c r="G149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>175</v>
       </c>
@@ -5059,8 +5505,11 @@
       <c r="G150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>176</v>
       </c>
@@ -5082,8 +5531,11 @@
       <c r="G151" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>177</v>
       </c>
@@ -5105,8 +5557,11 @@
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>178</v>
       </c>
@@ -5128,8 +5583,11 @@
       <c r="G153" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>179</v>
       </c>
@@ -5151,8 +5609,11 @@
       <c r="G154" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>180</v>
       </c>
@@ -5174,8 +5635,11 @@
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>181</v>
       </c>
@@ -5197,8 +5661,11 @@
       <c r="G156" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>182</v>
       </c>
@@ -5220,8 +5687,11 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>183</v>
       </c>
@@ -5243,8 +5713,11 @@
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>184</v>
       </c>
@@ -5266,8 +5739,11 @@
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>185</v>
       </c>
@@ -5289,8 +5765,11 @@
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>186</v>
       </c>
@@ -5312,8 +5791,11 @@
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>187</v>
       </c>
@@ -5335,8 +5817,11 @@
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>188</v>
       </c>
@@ -5358,8 +5843,11 @@
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>189</v>
       </c>
@@ -5381,8 +5869,11 @@
       <c r="G164" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>190</v>
       </c>
@@ -5404,8 +5895,11 @@
       <c r="G165" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>191</v>
       </c>
@@ -5427,8 +5921,11 @@
       <c r="G166" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>192</v>
       </c>
@@ -5450,8 +5947,11 @@
       <c r="G167" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>193</v>
       </c>
@@ -5473,8 +5973,11 @@
       <c r="G168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>194</v>
       </c>
@@ -5496,8 +5999,11 @@
       <c r="G169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>195</v>
       </c>
@@ -5519,8 +6025,11 @@
       <c r="G170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>196</v>
       </c>
@@ -5542,8 +6051,11 @@
       <c r="G171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>197</v>
       </c>
@@ -5565,8 +6077,11 @@
       <c r="G172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>200</v>
       </c>
@@ -5588,8 +6103,11 @@
       <c r="G173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>201</v>
       </c>
@@ -5611,8 +6129,11 @@
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>202</v>
       </c>
@@ -5634,8 +6155,11 @@
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>203</v>
       </c>
@@ -5657,8 +6181,11 @@
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>204</v>
       </c>
@@ -5680,8 +6207,11 @@
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>205</v>
       </c>
@@ -5703,8 +6233,11 @@
       <c r="G178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>206</v>
       </c>
@@ -5726,8 +6259,11 @@
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>207</v>
       </c>
@@ -5749,8 +6285,11 @@
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>208</v>
       </c>
@@ -5772,8 +6311,11 @@
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>209</v>
       </c>
@@ -5795,8 +6337,11 @@
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>210</v>
       </c>
@@ -5818,8 +6363,11 @@
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>211</v>
       </c>
@@ -5841,8 +6389,11 @@
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>212</v>
       </c>
@@ -5858,14 +6409,17 @@
       <c r="E185">
         <v>0</v>
       </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F185" s="5">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>213</v>
       </c>
@@ -5881,14 +6435,17 @@
       <c r="E186">
         <v>0</v>
       </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F186" s="5">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>214</v>
       </c>
@@ -5904,14 +6461,17 @@
       <c r="E187">
         <v>0</v>
       </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F187" s="5">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>215</v>
       </c>
@@ -5933,8 +6493,11 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>216</v>
       </c>
@@ -5956,8 +6519,11 @@
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>217</v>
       </c>
@@ -5979,8 +6545,11 @@
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>218</v>
       </c>
@@ -6002,8 +6571,11 @@
       <c r="G191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>219</v>
       </c>
@@ -6025,8 +6597,11 @@
       <c r="G192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>220</v>
       </c>
@@ -6048,8 +6623,11 @@
       <c r="G193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>221</v>
       </c>
@@ -6071,8 +6649,11 @@
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>222</v>
       </c>
@@ -6094,8 +6675,11 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>223</v>
       </c>
@@ -6117,8 +6701,11 @@
       <c r="G196" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>224</v>
       </c>
@@ -6140,8 +6727,11 @@
       <c r="G197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>225</v>
       </c>
@@ -6157,14 +6747,17 @@
       <c r="E198">
         <v>0</v>
       </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="G198" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F198" s="5">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>226</v>
       </c>
@@ -6180,14 +6773,17 @@
       <c r="E199">
         <v>0</v>
       </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-      <c r="G199" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F199" s="5">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>227</v>
       </c>
@@ -6203,14 +6799,17 @@
       <c r="E200">
         <v>0</v>
       </c>
-      <c r="F200">
-        <v>0</v>
+      <c r="F200" s="5">
+        <v>1</v>
       </c>
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>228</v>
       </c>
@@ -6226,14 +6825,17 @@
       <c r="E201">
         <v>0</v>
       </c>
-      <c r="F201">
-        <v>0</v>
+      <c r="F201" s="5">
+        <v>1</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>229</v>
       </c>
@@ -6249,14 +6851,17 @@
       <c r="E202">
         <v>0</v>
       </c>
-      <c r="F202">
-        <v>0</v>
+      <c r="F202" s="5">
+        <v>1</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>230</v>
       </c>
@@ -6278,8 +6883,11 @@
       <c r="G203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>231</v>
       </c>
@@ -6301,8 +6909,11 @@
       <c r="G204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>232</v>
       </c>
@@ -6324,8 +6935,11 @@
       <c r="G205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>233</v>
       </c>
@@ -6347,8 +6961,11 @@
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>234</v>
       </c>
@@ -6370,8 +6987,11 @@
       <c r="G207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>235</v>
       </c>
@@ -6393,8 +7013,11 @@
       <c r="G208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>236</v>
       </c>
@@ -6416,8 +7039,11 @@
       <c r="G209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>238</v>
       </c>
@@ -6439,8 +7065,11 @@
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>239</v>
       </c>
@@ -6462,8 +7091,11 @@
       <c r="G211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>240</v>
       </c>
@@ -6485,8 +7117,11 @@
       <c r="G212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>241</v>
       </c>
@@ -6508,8 +7143,11 @@
       <c r="G213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>242</v>
       </c>
@@ -6531,8 +7169,11 @@
       <c r="G214" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>243</v>
       </c>
@@ -6554,8 +7195,11 @@
       <c r="G215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>244</v>
       </c>
@@ -6577,8 +7221,11 @@
       <c r="G216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>247</v>
       </c>
@@ -6600,8 +7247,11 @@
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>248</v>
       </c>
@@ -6623,8 +7273,11 @@
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>249</v>
       </c>
@@ -6646,8 +7299,11 @@
       <c r="G219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>250</v>
       </c>
@@ -6669,8 +7325,11 @@
       <c r="G220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>251</v>
       </c>
@@ -6692,8 +7351,11 @@
       <c r="G221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>257</v>
       </c>
@@ -6715,8 +7377,11 @@
       <c r="G222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>258</v>
       </c>
@@ -6738,8 +7403,11 @@
       <c r="G223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>259</v>
       </c>
@@ -6761,8 +7429,11 @@
       <c r="G224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>262</v>
       </c>
@@ -6778,14 +7449,17 @@
       <c r="E225">
         <v>0</v>
       </c>
-      <c r="F225">
-        <v>0</v>
+      <c r="F225" s="5">
+        <v>800</v>
       </c>
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>263</v>
       </c>
@@ -6801,14 +7475,17 @@
       <c r="E226">
         <v>0</v>
       </c>
-      <c r="F226">
-        <v>0</v>
+      <c r="F226" s="5">
+        <v>50</v>
       </c>
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>264</v>
       </c>
@@ -6830,8 +7507,11 @@
       <c r="G227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>265</v>
       </c>
@@ -6853,8 +7533,11 @@
       <c r="G228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>267</v>
       </c>
@@ -6876,8 +7559,11 @@
       <c r="G229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>268</v>
       </c>
@@ -6899,8 +7585,11 @@
       <c r="G230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>269</v>
       </c>
@@ -6922,8 +7611,11 @@
       <c r="G231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>270</v>
       </c>
@@ -6936,17 +7628,20 @@
       <c r="D232">
         <v>1</v>
       </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232">
-        <v>1</v>
-      </c>
-      <c r="G232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E232" s="4">
+        <v>0</v>
+      </c>
+      <c r="F232" s="4">
+        <v>0</v>
+      </c>
+      <c r="G232" s="4">
+        <v>0</v>
+      </c>
+      <c r="H232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>271</v>
       </c>
@@ -6968,8 +7663,11 @@
       <c r="G233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>272</v>
       </c>
@@ -6991,8 +7689,11 @@
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>273</v>
       </c>
@@ -7014,8 +7715,11 @@
       <c r="G235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>274</v>
       </c>
@@ -7037,8 +7741,11 @@
       <c r="G236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>275</v>
       </c>
@@ -7060,8 +7767,11 @@
       <c r="G237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>276</v>
       </c>
@@ -7083,8 +7793,11 @@
       <c r="G238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>277</v>
       </c>
@@ -7106,8 +7819,11 @@
       <c r="G239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>279</v>
       </c>
@@ -7129,8 +7845,11 @@
       <c r="G240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>280</v>
       </c>
@@ -7152,8 +7871,11 @@
       <c r="G241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>281</v>
       </c>
@@ -7169,14 +7891,17 @@
       <c r="E242">
         <v>0</v>
       </c>
-      <c r="F242">
-        <v>0</v>
+      <c r="F242" s="5">
+        <v>1</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>282</v>
       </c>
@@ -7198,8 +7923,11 @@
       <c r="G243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>283</v>
       </c>
@@ -7215,14 +7943,17 @@
       <c r="E244">
         <v>0</v>
       </c>
-      <c r="F244">
-        <v>0</v>
+      <c r="F244" s="5">
+        <v>1</v>
       </c>
       <c r="G244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>284</v>
       </c>
@@ -7244,8 +7975,11 @@
       <c r="G245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>285</v>
       </c>
@@ -7267,8 +8001,11 @@
       <c r="G246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>286</v>
       </c>
@@ -7290,8 +8027,11 @@
       <c r="G247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>287</v>
       </c>
@@ -7313,8 +8053,11 @@
       <c r="G248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>288</v>
       </c>
@@ -7336,8 +8079,11 @@
       <c r="G249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>289</v>
       </c>
@@ -7359,8 +8105,11 @@
       <c r="G250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>290</v>
       </c>
@@ -7382,8 +8131,11 @@
       <c r="G251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>291</v>
       </c>
@@ -7405,8 +8157,11 @@
       <c r="G252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>298</v>
       </c>
@@ -7428,8 +8183,11 @@
       <c r="G253">
         <v>190</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>309</v>
       </c>
@@ -7451,8 +8209,11 @@
       <c r="G254">
         <v>64000</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>310</v>
       </c>
@@ -7474,8 +8235,11 @@
       <c r="G255">
         <v>17000</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>311</v>
       </c>
@@ -7497,8 +8261,11 @@
       <c r="G256">
         <v>1500</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>312</v>
       </c>
@@ -7520,8 +8287,11 @@
       <c r="G257">
         <v>350</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>313</v>
       </c>
@@ -7534,17 +8304,20 @@
       <c r="D258">
         <v>1</v>
       </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-      <c r="F258">
-        <v>1</v>
-      </c>
-      <c r="G258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E258" s="4">
+        <v>0</v>
+      </c>
+      <c r="F258" s="4">
+        <v>0</v>
+      </c>
+      <c r="G258" s="4">
+        <v>0</v>
+      </c>
+      <c r="H258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>314</v>
       </c>
@@ -7566,8 +8339,11 @@
       <c r="G259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>316</v>
       </c>
@@ -7589,8 +8365,11 @@
       <c r="G260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>317</v>
       </c>
@@ -7612,8 +8391,11 @@
       <c r="G261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>318</v>
       </c>
@@ -7635,8 +8417,11 @@
       <c r="G262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>319</v>
       </c>
@@ -7658,8 +8443,11 @@
       <c r="G263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>320</v>
       </c>
@@ -7681,8 +8469,11 @@
       <c r="G264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>321</v>
       </c>
@@ -7704,8 +8495,11 @@
       <c r="G265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>322</v>
       </c>
@@ -7718,17 +8512,20 @@
       <c r="D266">
         <v>1</v>
       </c>
-      <c r="E266">
-        <v>1</v>
-      </c>
-      <c r="F266">
-        <v>1</v>
-      </c>
-      <c r="G266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E266" s="4">
+        <v>0</v>
+      </c>
+      <c r="F266" s="4">
+        <v>0</v>
+      </c>
+      <c r="G266" s="4">
+        <v>0</v>
+      </c>
+      <c r="H266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>324</v>
       </c>
@@ -7750,8 +8547,11 @@
       <c r="G267">
         <v>103000</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H267">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>325</v>
       </c>
@@ -7773,8 +8573,11 @@
       <c r="G268">
         <v>770</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H268">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>326</v>
       </c>
@@ -7796,8 +8599,11 @@
       <c r="G269">
         <v>250</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H269">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>327</v>
       </c>
@@ -7819,8 +8625,11 @@
       <c r="G270">
         <v>40</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H270">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>329</v>
       </c>
@@ -7842,8 +8651,11 @@
       <c r="G271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>330</v>
       </c>
@@ -7865,8 +8677,11 @@
       <c r="G272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>331</v>
       </c>
@@ -7888,8 +8703,11 @@
       <c r="G273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>332</v>
       </c>
@@ -7911,8 +8729,11 @@
       <c r="G274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>333</v>
       </c>
@@ -7934,8 +8755,11 @@
       <c r="G275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>334</v>
       </c>
@@ -7957,8 +8781,11 @@
       <c r="G276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>335</v>
       </c>
@@ -7974,14 +8801,17 @@
       <c r="E277">
         <v>0</v>
       </c>
-      <c r="F277">
-        <v>0</v>
+      <c r="F277" s="5">
+        <v>1</v>
       </c>
       <c r="G277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>336</v>
       </c>
@@ -7997,14 +8827,17 @@
       <c r="E278">
         <v>0</v>
       </c>
-      <c r="F278">
-        <v>0</v>
+      <c r="F278" s="5">
+        <v>1</v>
       </c>
       <c r="G278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>337</v>
       </c>
@@ -8020,14 +8853,17 @@
       <c r="E279">
         <v>0</v>
       </c>
-      <c r="F279">
-        <v>0</v>
+      <c r="F279" s="5">
+        <v>1</v>
       </c>
       <c r="G279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>338</v>
       </c>
@@ -8043,14 +8879,17 @@
       <c r="E280">
         <v>0</v>
       </c>
-      <c r="F280">
-        <v>0</v>
+      <c r="F280" s="5">
+        <v>1</v>
       </c>
       <c r="G280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>340</v>
       </c>
@@ -8072,8 +8911,11 @@
       <c r="G281">
         <v>8400</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H281">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>341</v>
       </c>
@@ -8095,8 +8937,11 @@
       <c r="G282">
         <v>170</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H282">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>342</v>
       </c>
@@ -8118,8 +8963,11 @@
       <c r="G283">
         <v>70</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H283">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>343</v>
       </c>
@@ -8132,17 +8980,20 @@
       <c r="D284">
         <v>1</v>
       </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E284" s="4">
+        <v>0</v>
+      </c>
+      <c r="F284" s="4">
+        <v>0</v>
+      </c>
+      <c r="G284" s="4">
+        <v>0</v>
+      </c>
+      <c r="H284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>345</v>
       </c>
@@ -8164,8 +9015,11 @@
       <c r="G285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>346</v>
       </c>
@@ -8187,8 +9041,11 @@
       <c r="G286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>348</v>
       </c>
@@ -8210,8 +9067,11 @@
       <c r="G287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>349</v>
       </c>
@@ -8233,8 +9093,11 @@
       <c r="G288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>350</v>
       </c>
@@ -8256,8 +9119,11 @@
       <c r="G289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>351</v>
       </c>
@@ -8270,17 +9136,20 @@
       <c r="D290">
         <v>1</v>
       </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E290" s="4">
+        <v>0</v>
+      </c>
+      <c r="F290" s="4">
+        <v>0</v>
+      </c>
+      <c r="G290" s="4">
+        <v>0</v>
+      </c>
+      <c r="H290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>352</v>
       </c>
@@ -8302,8 +9171,11 @@
       <c r="G291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>353</v>
       </c>
@@ -8325,8 +9197,11 @@
       <c r="G292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>355</v>
       </c>
@@ -8348,8 +9223,11 @@
       <c r="G293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>356</v>
       </c>
@@ -8371,8 +9249,11 @@
       <c r="G294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>357</v>
       </c>
@@ -8385,17 +9266,20 @@
       <c r="D295">
         <v>1</v>
       </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E295" s="4">
+        <v>0</v>
+      </c>
+      <c r="F295" s="4">
+        <v>0</v>
+      </c>
+      <c r="G295" s="4">
+        <v>0</v>
+      </c>
+      <c r="H295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>358</v>
       </c>
@@ -8417,8 +9301,11 @@
       <c r="G296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>359</v>
       </c>
@@ -8440,8 +9327,11 @@
       <c r="G297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>360</v>
       </c>
@@ -8463,8 +9353,11 @@
       <c r="G298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>361</v>
       </c>
@@ -8486,8 +9379,11 @@
       <c r="G299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>362</v>
       </c>
@@ -8503,14 +9399,17 @@
       <c r="E300">
         <v>0</v>
       </c>
-      <c r="F300">
-        <v>0</v>
+      <c r="F300" s="5">
+        <v>1</v>
       </c>
       <c r="G300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>363</v>
       </c>
@@ -8532,8 +9431,11 @@
       <c r="G301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>364</v>
       </c>
@@ -8555,8 +9457,11 @@
       <c r="G302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>365</v>
       </c>
@@ -8578,8 +9483,11 @@
       <c r="G303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>366</v>
       </c>
@@ -8601,8 +9509,11 @@
       <c r="G304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>372</v>
       </c>
@@ -8615,17 +9526,20 @@
       <c r="D305">
         <v>1</v>
       </c>
-      <c r="E305">
-        <v>1</v>
-      </c>
-      <c r="F305">
-        <v>1</v>
-      </c>
-      <c r="G305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E305" s="4">
+        <v>0</v>
+      </c>
+      <c r="F305" s="4">
+        <v>0</v>
+      </c>
+      <c r="G305" s="4">
+        <v>0</v>
+      </c>
+      <c r="H305" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>373</v>
       </c>
@@ -8647,8 +9561,11 @@
       <c r="G306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>374</v>
       </c>
@@ -8670,8 +9587,11 @@
       <c r="G307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>376</v>
       </c>
@@ -8693,8 +9613,11 @@
       <c r="G308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>382</v>
       </c>
@@ -8716,8 +9639,11 @@
       <c r="G309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>383</v>
       </c>
@@ -8739,8 +9665,11 @@
       <c r="G310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>384</v>
       </c>
@@ -8756,14 +9685,17 @@
       <c r="E311">
         <v>0</v>
       </c>
-      <c r="F311">
-        <v>0</v>
+      <c r="F311" s="5">
+        <v>100</v>
       </c>
       <c r="G311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>385</v>
       </c>
@@ -8779,14 +9711,17 @@
       <c r="E312">
         <v>0</v>
       </c>
-      <c r="F312">
-        <v>0</v>
+      <c r="F312" s="5">
+        <v>50</v>
       </c>
       <c r="G312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>386</v>
       </c>
@@ -8802,14 +9737,17 @@
       <c r="E313">
         <v>0</v>
       </c>
-      <c r="F313">
-        <v>0</v>
+      <c r="F313" s="5">
+        <v>1</v>
       </c>
       <c r="G313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>387</v>
       </c>
@@ -8831,8 +9769,11 @@
       <c r="G314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>388</v>
       </c>
@@ -8854,8 +9795,11 @@
       <c r="G315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>389</v>
       </c>
@@ -8868,17 +9812,20 @@
       <c r="D316">
         <v>1</v>
       </c>
-      <c r="E316">
-        <v>1</v>
-      </c>
-      <c r="F316">
-        <v>1</v>
-      </c>
-      <c r="G316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E316" s="4">
+        <v>0</v>
+      </c>
+      <c r="F316" s="4">
+        <v>0</v>
+      </c>
+      <c r="G316" s="4">
+        <v>0</v>
+      </c>
+      <c r="H316" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>390</v>
       </c>
@@ -8900,8 +9847,11 @@
       <c r="G317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>391</v>
       </c>
@@ -8923,8 +9873,11 @@
       <c r="G318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>398</v>
       </c>
@@ -8946,8 +9899,11 @@
       <c r="G319">
         <v>11400</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H319">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>399</v>
       </c>
@@ -8969,8 +9925,11 @@
       <c r="G320">
         <v>4100</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H320">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>400</v>
       </c>
@@ -8992,8 +9951,11 @@
       <c r="G321">
         <v>1600</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H321">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>401</v>
       </c>
@@ -9015,8 +9977,11 @@
       <c r="G322">
         <v>500</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H322">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>402</v>
       </c>
@@ -9038,8 +10003,11 @@
       <c r="G323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>403</v>
       </c>
@@ -9061,8 +10029,11 @@
       <c r="G324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>404</v>
       </c>
@@ -9075,17 +10046,20 @@
       <c r="D325">
         <v>1</v>
       </c>
-      <c r="E325">
-        <v>1</v>
-      </c>
-      <c r="F325">
-        <v>1</v>
-      </c>
-      <c r="G325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E325" s="4">
+        <v>0</v>
+      </c>
+      <c r="F325" s="4">
+        <v>0</v>
+      </c>
+      <c r="G325" s="4">
+        <v>0</v>
+      </c>
+      <c r="H325" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>405</v>
       </c>
@@ -9107,8 +10081,11 @@
       <c r="G326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>406</v>
       </c>
@@ -9130,8 +10107,11 @@
       <c r="G327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>410</v>
       </c>
@@ -9153,8 +10133,11 @@
       <c r="G328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>411</v>
       </c>
@@ -9176,8 +10159,11 @@
       <c r="G329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>412</v>
       </c>
@@ -9199,8 +10185,11 @@
       <c r="G330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>416</v>
       </c>
@@ -9222,8 +10211,11 @@
       <c r="G331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>417</v>
       </c>
@@ -9245,8 +10237,11 @@
       <c r="G332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>421</v>
       </c>
@@ -9268,8 +10263,11 @@
       <c r="G333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>422</v>
       </c>
@@ -9291,8 +10289,11 @@
       <c r="G334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>423</v>
       </c>
@@ -9314,8 +10315,11 @@
       <c r="G335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>424</v>
       </c>
@@ -9337,8 +10341,11 @@
       <c r="G336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>425</v>
       </c>
@@ -9360,8 +10367,11 @@
       <c r="G337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>426</v>
       </c>
@@ -9383,8 +10393,11 @@
       <c r="G338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>428</v>
       </c>
@@ -9406,8 +10419,11 @@
       <c r="G339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>429</v>
       </c>
@@ -9429,8 +10445,11 @@
       <c r="G340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>430</v>
       </c>
@@ -9452,8 +10471,11 @@
       <c r="G341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>431</v>
       </c>
@@ -9475,8 +10497,11 @@
       <c r="G342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>432</v>
       </c>
@@ -9498,8 +10523,11 @@
       <c r="G343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>443</v>
       </c>
@@ -9521,8 +10549,11 @@
       <c r="G344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>444</v>
       </c>
@@ -9544,8 +10575,11 @@
       <c r="G345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>446</v>
       </c>
@@ -9567,8 +10601,11 @@
       <c r="G346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>447</v>
       </c>
@@ -9590,8 +10627,11 @@
       <c r="G347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>448</v>
       </c>
@@ -9613,8 +10653,11 @@
       <c r="G348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>451</v>
       </c>
@@ -9636,8 +10679,11 @@
       <c r="G349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>452</v>
       </c>
@@ -9659,8 +10705,11 @@
       <c r="G350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>453</v>
       </c>
@@ -9682,8 +10731,11 @@
       <c r="G351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>454</v>
       </c>
@@ -9705,8 +10757,11 @@
       <c r="G352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>458</v>
       </c>
@@ -9728,8 +10783,11 @@
       <c r="G353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>459</v>
       </c>
@@ -9751,8 +10809,11 @@
       <c r="G354">
         <v>17881</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H354">
+        <v>17881</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>460</v>
       </c>
@@ -9774,8 +10835,11 @@
       <c r="G355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>461</v>
       </c>
@@ -9797,8 +10861,11 @@
       <c r="G356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>462</v>
       </c>
@@ -9820,8 +10887,11 @@
       <c r="G357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>463</v>
       </c>
@@ -9843,8 +10913,11 @@
       <c r="G358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>464</v>
       </c>
@@ -9866,8 +10939,11 @@
       <c r="G359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>465</v>
       </c>
@@ -9889,8 +10965,11 @@
       <c r="G360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>466</v>
       </c>
@@ -9912,8 +10991,11 @@
       <c r="G361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>467</v>
       </c>
@@ -9935,8 +11017,11 @@
       <c r="G362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>468</v>
       </c>
@@ -9958,8 +11043,11 @@
       <c r="G363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>469</v>
       </c>
@@ -9981,8 +11069,11 @@
       <c r="G364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>471</v>
       </c>
@@ -10004,8 +11095,11 @@
       <c r="G365">
         <v>110</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H365">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>472</v>
       </c>
@@ -10027,8 +11121,11 @@
       <c r="G366">
         <v>269167</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H366">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>473</v>
       </c>
@@ -10050,8 +11147,11 @@
       <c r="G367">
         <v>269167</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H367">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>474</v>
       </c>
@@ -10073,8 +11173,11 @@
       <c r="G368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>475</v>
       </c>
@@ -10096,8 +11199,11 @@
       <c r="G369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>476</v>
       </c>
@@ -10119,8 +11225,11 @@
       <c r="G370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>477</v>
       </c>
@@ -10142,8 +11251,11 @@
       <c r="G371">
         <v>269167</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H371">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>478</v>
       </c>
@@ -10165,8 +11277,11 @@
       <c r="G372">
         <v>269167</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H372">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>479</v>
       </c>
@@ -10188,8 +11303,11 @@
       <c r="G373">
         <v>269167</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H373">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>480</v>
       </c>
@@ -10211,8 +11329,11 @@
       <c r="G374">
         <v>1103</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H374">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>482</v>
       </c>
@@ -10234,8 +11355,11 @@
       <c r="G375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>483</v>
       </c>
@@ -10257,8 +11381,11 @@
       <c r="G376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>484</v>
       </c>
@@ -10280,8 +11407,11 @@
       <c r="G377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>485</v>
       </c>
@@ -10303,8 +11433,11 @@
       <c r="G378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>486</v>
       </c>
@@ -10326,8 +11459,11 @@
       <c r="G379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>487</v>
       </c>
@@ -10349,8 +11485,11 @@
       <c r="G380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>488</v>
       </c>
@@ -10372,8 +11511,11 @@
       <c r="G381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>489</v>
       </c>
@@ -10395,8 +11537,11 @@
       <c r="G382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>490</v>
       </c>
@@ -10418,8 +11563,11 @@
       <c r="G383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>491</v>
       </c>
@@ -10441,8 +11589,11 @@
       <c r="G384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>492</v>
       </c>
@@ -10464,8 +11615,11 @@
       <c r="G385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>494</v>
       </c>
@@ -10487,8 +11641,11 @@
       <c r="G386">
         <v>6</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>500</v>
       </c>
@@ -10510,8 +11667,11 @@
       <c r="G387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>501</v>
       </c>
@@ -10533,8 +11693,11 @@
       <c r="G388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>503</v>
       </c>
@@ -10556,8 +11719,11 @@
       <c r="G389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>504</v>
       </c>
@@ -10579,8 +11745,11 @@
       <c r="G390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>505</v>
       </c>
@@ -10602,8 +11771,11 @@
       <c r="G391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>506</v>
       </c>
@@ -10625,8 +11797,12 @@
       <c r="G392">
         <v>0</v>
       </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/development/L1Menu_Collisions2022_v1_1_0/PrescaleTable/L1Menu_Collisions2022_v1_1_0-RateStudy.xlsx
+++ b/development/L1Menu_Collisions2022_v1_1_0/PrescaleTable/L1Menu_Collisions2022_v1_1_0-RateStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2022_v1_1_0/PrescaleTable-RateStudies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C8BAA-C6FC-D142-A67A-BEC5E3052FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB54A6-C159-F94C-B736-F4C9997D8A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="0" windowWidth="15760" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="-21000" windowWidth="21360" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1596,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J392"/>
+  <dimension ref="A1:K392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1607,7 +1607,7 @@
     <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1632,10 +1632,13 @@
       <c r="H1" s="3">
         <v>1.5999999999999999E+34</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="3">
+        <v>1.5000000000000001E+34</v>
+      </c>
       <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1660,8 +1663,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1686,8 +1692,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1712,8 +1721,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1738,8 +1750,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1764,8 +1779,11 @@
       <c r="H6">
         <v>63000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1790,8 +1808,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1816,8 +1837,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1842,8 +1866,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1868,8 +1895,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1894,8 +1924,11 @@
       <c r="H11">
         <v>22000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1920,8 +1953,11 @@
       <c r="H12">
         <v>1700</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1946,8 +1982,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1972,8 +2011,11 @@
       <c r="H14">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1998,8 +2040,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2024,8 +2069,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2050,8 +2098,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2076,8 +2127,11 @@
       <c r="H18">
         <v>1300</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2102,8 +2156,11 @@
       <c r="H19">
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2128,8 +2185,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2154,8 +2214,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2180,8 +2243,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2194,8 +2260,8 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -2206,8 +2272,11 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2220,8 +2289,8 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -2232,8 +2301,11 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2246,8 +2318,8 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -2258,8 +2330,11 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2272,8 +2347,8 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -2284,8 +2359,11 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2310,8 +2388,11 @@
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2336,8 +2417,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2362,8 +2446,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2388,8 +2475,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2414,8 +2504,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2440,8 +2533,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2466,8 +2562,11 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2518,8 +2620,11 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2544,8 +2649,11 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2570,8 +2678,11 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2596,8 +2707,11 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2622,8 +2736,11 @@
       <c r="H39">
         <v>1500</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2648,8 +2765,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2674,8 +2794,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2700,8 +2823,11 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2726,8 +2852,11 @@
       <c r="H43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2752,8 +2881,11 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2778,8 +2910,11 @@
       <c r="H45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2804,8 +2939,11 @@
       <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2830,8 +2968,11 @@
       <c r="H47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2856,8 +2997,11 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2882,8 +3026,11 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2908,8 +3055,11 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2922,20 +3072,23 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2948,20 +3101,23 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="5">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2986,8 +3142,11 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3012,8 +3171,11 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3026,20 +3188,23 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5">
+      <c r="E55" s="5">
         <v>190</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55" s="5">
         <v>190</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="5">
+        <v>190</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3064,8 +3229,11 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3078,20 +3246,23 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
-        <v>1</v>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3104,20 +3275,23 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" s="5">
-        <v>1</v>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3142,8 +3316,11 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3168,8 +3345,11 @@
       <c r="H60">
         <v>450</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3179,23 +3359,26 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>50</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>50</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>50</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>50</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3220,8 +3403,11 @@
       <c r="H62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3246,8 +3432,11 @@
       <c r="H63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3272,8 +3461,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3298,8 +3490,11 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3324,8 +3519,11 @@
       <c r="H66">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3350,8 +3548,11 @@
       <c r="H67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3376,8 +3577,11 @@
       <c r="H68">
         <v>800</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3402,8 +3606,11 @@
       <c r="H69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3428,8 +3635,11 @@
       <c r="H70">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3454,8 +3664,11 @@
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3480,8 +3693,11 @@
       <c r="H72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3506,8 +3722,11 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3532,8 +3751,11 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3558,8 +3780,11 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3572,20 +3797,23 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76" s="5">
+      <c r="E76" s="5">
         <v>100</v>
       </c>
-      <c r="G76">
-        <v>0</v>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>100</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3610,8 +3838,11 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3636,8 +3867,11 @@
       <c r="H78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3662,8 +3896,11 @@
       <c r="H79">
         <v>35</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3688,8 +3925,11 @@
       <c r="H80">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3714,8 +3954,11 @@
       <c r="H81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3740,8 +3983,11 @@
       <c r="H82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3766,8 +4012,11 @@
       <c r="H83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3780,20 +4029,23 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" s="5">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
+      <c r="E84" s="5">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>1</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3806,20 +4058,23 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" s="5">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>1</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3844,8 +4099,11 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3870,8 +4128,11 @@
       <c r="H87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3896,8 +4157,11 @@
       <c r="H88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3922,8 +4186,11 @@
       <c r="H89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3948,8 +4215,11 @@
       <c r="H90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3974,8 +4244,11 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4000,8 +4273,11 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4026,8 +4302,11 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4040,20 +4319,23 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
+      <c r="E94" s="5">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4066,20 +4348,23 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" s="5">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
+      <c r="E95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4104,8 +4389,11 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4130,8 +4418,11 @@
       <c r="H97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4156,8 +4447,11 @@
       <c r="H98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4182,8 +4476,11 @@
       <c r="H99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4208,8 +4505,11 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4234,8 +4534,11 @@
       <c r="H101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -4260,8 +4563,11 @@
       <c r="H102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>104</v>
       </c>
@@ -4286,8 +4592,11 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>105</v>
       </c>
@@ -4312,8 +4621,11 @@
       <c r="H104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>106</v>
       </c>
@@ -4338,8 +4650,11 @@
       <c r="H105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>107</v>
       </c>
@@ -4364,8 +4679,11 @@
       <c r="H106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>109</v>
       </c>
@@ -4390,8 +4708,11 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>110</v>
       </c>
@@ -4416,8 +4737,11 @@
       <c r="H108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -4442,8 +4766,11 @@
       <c r="H109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -4468,8 +4795,11 @@
       <c r="H110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>119</v>
       </c>
@@ -4494,8 +4824,11 @@
       <c r="H111">
         <v>11000</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>121</v>
       </c>
@@ -4520,8 +4853,11 @@
       <c r="H112">
         <v>400</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>122</v>
       </c>
@@ -4546,8 +4882,11 @@
       <c r="H113">
         <v>256</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>123</v>
       </c>
@@ -4572,8 +4911,11 @@
       <c r="H114">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>124</v>
       </c>
@@ -4598,8 +4940,11 @@
       <c r="H115">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>125</v>
       </c>
@@ -4624,8 +4969,11 @@
       <c r="H116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>126</v>
       </c>
@@ -4650,8 +4998,11 @@
       <c r="H117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>128</v>
       </c>
@@ -4676,8 +5027,11 @@
       <c r="H118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>129</v>
       </c>
@@ -4702,8 +5056,11 @@
       <c r="H119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>131</v>
       </c>
@@ -4728,8 +5085,11 @@
       <c r="H120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>132</v>
       </c>
@@ -4754,8 +5114,11 @@
       <c r="H121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>134</v>
       </c>
@@ -4780,8 +5143,11 @@
       <c r="H122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>135</v>
       </c>
@@ -4806,8 +5172,11 @@
       <c r="H123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>136</v>
       </c>
@@ -4832,8 +5201,11 @@
       <c r="H124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>142</v>
       </c>
@@ -4858,8 +5230,11 @@
       <c r="H125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>143</v>
       </c>
@@ -4884,8 +5259,11 @@
       <c r="H126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>145</v>
       </c>
@@ -4910,8 +5288,11 @@
       <c r="H127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>146</v>
       </c>
@@ -4936,8 +5317,11 @@
       <c r="H128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>147</v>
       </c>
@@ -4962,8 +5346,11 @@
       <c r="H129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>148</v>
       </c>
@@ -4988,8 +5375,11 @@
       <c r="H130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>150</v>
       </c>
@@ -5014,8 +5404,11 @@
       <c r="H131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>151</v>
       </c>
@@ -5040,8 +5433,11 @@
       <c r="H132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>152</v>
       </c>
@@ -5066,8 +5462,11 @@
       <c r="H133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>159</v>
       </c>
@@ -5092,8 +5491,11 @@
       <c r="H134">
         <v>44000</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>160</v>
       </c>
@@ -5118,8 +5520,11 @@
       <c r="H135">
         <v>7600</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>161</v>
       </c>
@@ -5144,8 +5549,11 @@
       <c r="H136">
         <v>1350</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>162</v>
       </c>
@@ -5170,8 +5578,11 @@
       <c r="H137">
         <v>780</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>163</v>
       </c>
@@ -5196,8 +5607,11 @@
       <c r="H138">
         <v>45</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>164</v>
       </c>
@@ -5222,8 +5636,11 @@
       <c r="H139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>165</v>
       </c>
@@ -5248,8 +5665,11 @@
       <c r="H140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>166</v>
       </c>
@@ -5274,8 +5694,11 @@
       <c r="H141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>167</v>
       </c>
@@ -5300,8 +5723,11 @@
       <c r="H142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>168</v>
       </c>
@@ -5326,8 +5752,11 @@
       <c r="H143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>169</v>
       </c>
@@ -5352,8 +5781,11 @@
       <c r="H144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>170</v>
       </c>
@@ -5378,8 +5810,11 @@
       <c r="H145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>171</v>
       </c>
@@ -5404,8 +5839,11 @@
       <c r="H146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>172</v>
       </c>
@@ -5430,8 +5868,11 @@
       <c r="H147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>173</v>
       </c>
@@ -5456,8 +5897,11 @@
       <c r="H148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>174</v>
       </c>
@@ -5482,8 +5926,11 @@
       <c r="H149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>175</v>
       </c>
@@ -5508,8 +5955,11 @@
       <c r="H150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>176</v>
       </c>
@@ -5522,8 +5972,8 @@
       <c r="D151" s="2">
         <v>1</v>
       </c>
-      <c r="E151" s="4">
-        <v>0</v>
+      <c r="E151" s="2">
+        <v>1</v>
       </c>
       <c r="F151" s="4">
         <v>0</v>
@@ -5534,8 +5984,11 @@
       <c r="H151" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>177</v>
       </c>
@@ -5560,8 +6013,11 @@
       <c r="H152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>178</v>
       </c>
@@ -5574,8 +6030,8 @@
       <c r="D153">
         <v>1</v>
       </c>
-      <c r="E153" s="4">
-        <v>0</v>
+      <c r="E153">
+        <v>1</v>
       </c>
       <c r="F153" s="4">
         <v>0</v>
@@ -5586,8 +6042,11 @@
       <c r="H153" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>179</v>
       </c>
@@ -5600,8 +6059,8 @@
       <c r="D154">
         <v>1</v>
       </c>
-      <c r="E154" s="4">
-        <v>0</v>
+      <c r="E154">
+        <v>1</v>
       </c>
       <c r="F154" s="4">
         <v>0</v>
@@ -5612,8 +6071,11 @@
       <c r="H154" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>180</v>
       </c>
@@ -5638,8 +6100,11 @@
       <c r="H155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>181</v>
       </c>
@@ -5652,8 +6117,8 @@
       <c r="D156">
         <v>1</v>
       </c>
-      <c r="E156" s="4">
-        <v>0</v>
+      <c r="E156">
+        <v>1</v>
       </c>
       <c r="F156" s="4">
         <v>0</v>
@@ -5664,8 +6129,11 @@
       <c r="H156" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>182</v>
       </c>
@@ -5690,8 +6158,11 @@
       <c r="H157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>183</v>
       </c>
@@ -5716,8 +6187,11 @@
       <c r="H158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>184</v>
       </c>
@@ -5742,8 +6216,11 @@
       <c r="H159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>185</v>
       </c>
@@ -5768,8 +6245,11 @@
       <c r="H160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>186</v>
       </c>
@@ -5794,8 +6274,11 @@
       <c r="H161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>187</v>
       </c>
@@ -5820,8 +6303,11 @@
       <c r="H162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>188</v>
       </c>
@@ -5846,8 +6332,11 @@
       <c r="H163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>189</v>
       </c>
@@ -5860,8 +6349,8 @@
       <c r="D164">
         <v>1</v>
       </c>
-      <c r="E164" s="4">
-        <v>0</v>
+      <c r="E164">
+        <v>1</v>
       </c>
       <c r="F164" s="4">
         <v>0</v>
@@ -5872,8 +6361,11 @@
       <c r="H164" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>190</v>
       </c>
@@ -5886,8 +6378,8 @@
       <c r="D165">
         <v>1</v>
       </c>
-      <c r="E165" s="4">
-        <v>0</v>
+      <c r="E165">
+        <v>1</v>
       </c>
       <c r="F165" s="4">
         <v>0</v>
@@ -5898,8 +6390,11 @@
       <c r="H165" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>191</v>
       </c>
@@ -5912,8 +6407,8 @@
       <c r="D166">
         <v>1</v>
       </c>
-      <c r="E166" s="4">
-        <v>0</v>
+      <c r="E166">
+        <v>1</v>
       </c>
       <c r="F166" s="4">
         <v>0</v>
@@ -5924,8 +6419,11 @@
       <c r="H166" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>192</v>
       </c>
@@ -5938,8 +6436,8 @@
       <c r="D167">
         <v>1</v>
       </c>
-      <c r="E167" s="4">
-        <v>0</v>
+      <c r="E167">
+        <v>1</v>
       </c>
       <c r="F167" s="4">
         <v>0</v>
@@ -5950,8 +6448,11 @@
       <c r="H167" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>193</v>
       </c>
@@ -5976,8 +6477,11 @@
       <c r="H168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>194</v>
       </c>
@@ -6002,8 +6506,11 @@
       <c r="H169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>195</v>
       </c>
@@ -6028,8 +6535,11 @@
       <c r="H170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>196</v>
       </c>
@@ -6054,8 +6564,11 @@
       <c r="H171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>197</v>
       </c>
@@ -6080,8 +6593,11 @@
       <c r="H172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>200</v>
       </c>
@@ -6106,8 +6622,11 @@
       <c r="H173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>201</v>
       </c>
@@ -6132,8 +6651,11 @@
       <c r="H174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>202</v>
       </c>
@@ -6158,8 +6680,11 @@
       <c r="H175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>203</v>
       </c>
@@ -6184,8 +6709,11 @@
       <c r="H176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>204</v>
       </c>
@@ -6210,8 +6738,11 @@
       <c r="H177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>205</v>
       </c>
@@ -6236,8 +6767,11 @@
       <c r="H178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>206</v>
       </c>
@@ -6262,8 +6796,11 @@
       <c r="H179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>207</v>
       </c>
@@ -6288,8 +6825,11 @@
       <c r="H180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>208</v>
       </c>
@@ -6314,8 +6854,11 @@
       <c r="H181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>209</v>
       </c>
@@ -6340,8 +6883,11 @@
       <c r="H182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>210</v>
       </c>
@@ -6366,8 +6912,11 @@
       <c r="H183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>211</v>
       </c>
@@ -6392,8 +6941,11 @@
       <c r="H184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>212</v>
       </c>
@@ -6406,20 +6958,23 @@
       <c r="D185">
         <v>0</v>
       </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185" s="5">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E185" s="5">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" s="5">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>213</v>
       </c>
@@ -6432,20 +6987,23 @@
       <c r="D186">
         <v>0</v>
       </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E186" s="5">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" s="5">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>214</v>
       </c>
@@ -6458,20 +7016,23 @@
       <c r="D187">
         <v>0</v>
       </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187" s="5">
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E187" s="5">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" s="5">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>215</v>
       </c>
@@ -6496,8 +7057,11 @@
       <c r="H188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>216</v>
       </c>
@@ -6522,8 +7086,11 @@
       <c r="H189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>217</v>
       </c>
@@ -6548,8 +7115,11 @@
       <c r="H190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>218</v>
       </c>
@@ -6574,8 +7144,11 @@
       <c r="H191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>219</v>
       </c>
@@ -6600,8 +7173,11 @@
       <c r="H192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>220</v>
       </c>
@@ -6626,8 +7202,11 @@
       <c r="H193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>221</v>
       </c>
@@ -6652,8 +7231,11 @@
       <c r="H194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>222</v>
       </c>
@@ -6678,8 +7260,11 @@
       <c r="H195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>223</v>
       </c>
@@ -6692,8 +7277,8 @@
       <c r="D196">
         <v>1</v>
       </c>
-      <c r="E196" s="4">
-        <v>0</v>
+      <c r="E196">
+        <v>1</v>
       </c>
       <c r="F196" s="4">
         <v>0</v>
@@ -6704,8 +7289,11 @@
       <c r="H196" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>224</v>
       </c>
@@ -6730,8 +7318,11 @@
       <c r="H197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>225</v>
       </c>
@@ -6744,20 +7335,23 @@
       <c r="D198">
         <v>0</v>
       </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198" s="5">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E198" s="5">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" s="5">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>226</v>
       </c>
@@ -6770,20 +7364,23 @@
       <c r="D199">
         <v>0</v>
       </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199" s="5">
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="H199" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E199" s="5">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" s="5">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>227</v>
       </c>
@@ -6796,20 +7393,23 @@
       <c r="D200">
         <v>0</v>
       </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200" s="5">
-        <v>1</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-      <c r="H200" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E200" s="5">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" s="5">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>228</v>
       </c>
@@ -6822,20 +7422,23 @@
       <c r="D201">
         <v>0</v>
       </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201" s="5">
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E201" s="5">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" s="5">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>229</v>
       </c>
@@ -6848,20 +7451,23 @@
       <c r="D202">
         <v>0</v>
       </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202" s="5">
-        <v>1</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E202" s="5">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" s="5">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>230</v>
       </c>
@@ -6886,8 +7492,11 @@
       <c r="H203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>231</v>
       </c>
@@ -6912,8 +7521,11 @@
       <c r="H204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>232</v>
       </c>
@@ -6938,8 +7550,11 @@
       <c r="H205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>233</v>
       </c>
@@ -6964,8 +7579,11 @@
       <c r="H206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>234</v>
       </c>
@@ -6990,8 +7608,11 @@
       <c r="H207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>235</v>
       </c>
@@ -7016,8 +7637,11 @@
       <c r="H208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>236</v>
       </c>
@@ -7042,8 +7666,11 @@
       <c r="H209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>238</v>
       </c>
@@ -7068,8 +7695,11 @@
       <c r="H210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>239</v>
       </c>
@@ -7094,8 +7724,11 @@
       <c r="H211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>240</v>
       </c>
@@ -7120,8 +7753,11 @@
       <c r="H212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>241</v>
       </c>
@@ -7146,8 +7782,11 @@
       <c r="H213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>242</v>
       </c>
@@ -7160,8 +7799,8 @@
       <c r="D214">
         <v>1</v>
       </c>
-      <c r="E214" s="4">
-        <v>0</v>
+      <c r="E214">
+        <v>1</v>
       </c>
       <c r="F214" s="4">
         <v>0</v>
@@ -7172,8 +7811,11 @@
       <c r="H214" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>243</v>
       </c>
@@ -7198,8 +7840,11 @@
       <c r="H215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>244</v>
       </c>
@@ -7224,8 +7869,11 @@
       <c r="H216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>247</v>
       </c>
@@ -7250,8 +7898,11 @@
       <c r="H217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>248</v>
       </c>
@@ -7276,8 +7927,11 @@
       <c r="H218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>249</v>
       </c>
@@ -7302,8 +7956,11 @@
       <c r="H219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>250</v>
       </c>
@@ -7328,8 +7985,11 @@
       <c r="H220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>251</v>
       </c>
@@ -7354,8 +8014,11 @@
       <c r="H221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>257</v>
       </c>
@@ -7380,8 +8043,11 @@
       <c r="H222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>258</v>
       </c>
@@ -7406,8 +8072,11 @@
       <c r="H223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>259</v>
       </c>
@@ -7432,8 +8101,11 @@
       <c r="H224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>262</v>
       </c>
@@ -7446,20 +8118,23 @@
       <c r="D225">
         <v>0</v>
       </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-      <c r="F225" s="5">
+      <c r="E225" s="5">
         <v>800</v>
       </c>
-      <c r="G225">
-        <v>0</v>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" s="5">
+        <v>800</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>263</v>
       </c>
@@ -7472,20 +8147,23 @@
       <c r="D226">
         <v>0</v>
       </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-      <c r="F226" s="5">
+      <c r="E226" s="5">
         <v>50</v>
       </c>
-      <c r="G226">
-        <v>0</v>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" s="5">
+        <v>50</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>264</v>
       </c>
@@ -7510,8 +8188,11 @@
       <c r="H227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>265</v>
       </c>
@@ -7536,8 +8217,11 @@
       <c r="H228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>267</v>
       </c>
@@ -7562,8 +8246,11 @@
       <c r="H229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>268</v>
       </c>
@@ -7588,8 +8275,11 @@
       <c r="H230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>269</v>
       </c>
@@ -7614,8 +8304,11 @@
       <c r="H231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>270</v>
       </c>
@@ -7628,8 +8321,8 @@
       <c r="D232">
         <v>1</v>
       </c>
-      <c r="E232" s="4">
-        <v>0</v>
+      <c r="E232">
+        <v>1</v>
       </c>
       <c r="F232" s="4">
         <v>0</v>
@@ -7640,8 +8333,11 @@
       <c r="H232" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>271</v>
       </c>
@@ -7666,8 +8362,11 @@
       <c r="H233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>272</v>
       </c>
@@ -7692,8 +8391,11 @@
       <c r="H234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>273</v>
       </c>
@@ -7718,8 +8420,11 @@
       <c r="H235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>274</v>
       </c>
@@ -7744,8 +8449,11 @@
       <c r="H236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>275</v>
       </c>
@@ -7770,8 +8478,11 @@
       <c r="H237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>276</v>
       </c>
@@ -7796,8 +8507,11 @@
       <c r="H238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>277</v>
       </c>
@@ -7822,8 +8536,11 @@
       <c r="H239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>279</v>
       </c>
@@ -7848,8 +8565,11 @@
       <c r="H240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>280</v>
       </c>
@@ -7874,8 +8594,11 @@
       <c r="H241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>281</v>
       </c>
@@ -7888,20 +8611,23 @@
       <c r="D242">
         <v>0</v>
       </c>
-      <c r="E242">
-        <v>0</v>
-      </c>
-      <c r="F242" s="5">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>0</v>
+      <c r="E242" s="5">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" s="5">
+        <v>1</v>
       </c>
       <c r="H242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>282</v>
       </c>
@@ -7926,8 +8652,11 @@
       <c r="H243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>283</v>
       </c>
@@ -7940,20 +8669,23 @@
       <c r="D244">
         <v>0</v>
       </c>
-      <c r="E244">
-        <v>0</v>
-      </c>
-      <c r="F244" s="5">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>0</v>
+      <c r="E244" s="5">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" s="5">
+        <v>1</v>
       </c>
       <c r="H244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>284</v>
       </c>
@@ -7978,8 +8710,11 @@
       <c r="H245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>285</v>
       </c>
@@ -8004,8 +8739,11 @@
       <c r="H246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>286</v>
       </c>
@@ -8030,8 +8768,11 @@
       <c r="H247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>287</v>
       </c>
@@ -8056,8 +8797,11 @@
       <c r="H248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>288</v>
       </c>
@@ -8082,8 +8826,11 @@
       <c r="H249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>289</v>
       </c>
@@ -8108,8 +8855,11 @@
       <c r="H250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>290</v>
       </c>
@@ -8134,8 +8884,11 @@
       <c r="H251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>291</v>
       </c>
@@ -8160,8 +8913,11 @@
       <c r="H252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>298</v>
       </c>
@@ -8186,8 +8942,11 @@
       <c r="H253">
         <v>190</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>309</v>
       </c>
@@ -8212,8 +8971,11 @@
       <c r="H254">
         <v>64000</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>310</v>
       </c>
@@ -8238,8 +9000,11 @@
       <c r="H255">
         <v>17000</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>311</v>
       </c>
@@ -8264,8 +9029,11 @@
       <c r="H256">
         <v>1500</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I256">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>312</v>
       </c>
@@ -8290,8 +9058,11 @@
       <c r="H257">
         <v>350</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I257">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>313</v>
       </c>
@@ -8304,8 +9075,8 @@
       <c r="D258">
         <v>1</v>
       </c>
-      <c r="E258" s="4">
-        <v>0</v>
+      <c r="E258">
+        <v>1</v>
       </c>
       <c r="F258" s="4">
         <v>0</v>
@@ -8316,8 +9087,11 @@
       <c r="H258" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>314</v>
       </c>
@@ -8342,8 +9116,11 @@
       <c r="H259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>316</v>
       </c>
@@ -8368,8 +9145,11 @@
       <c r="H260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>317</v>
       </c>
@@ -8394,8 +9174,11 @@
       <c r="H261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>318</v>
       </c>
@@ -8420,8 +9203,11 @@
       <c r="H262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>319</v>
       </c>
@@ -8446,8 +9232,11 @@
       <c r="H263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>320</v>
       </c>
@@ -8472,8 +9261,11 @@
       <c r="H264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>321</v>
       </c>
@@ -8498,8 +9290,11 @@
       <c r="H265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>322</v>
       </c>
@@ -8512,8 +9307,8 @@
       <c r="D266">
         <v>1</v>
       </c>
-      <c r="E266" s="4">
-        <v>0</v>
+      <c r="E266">
+        <v>1</v>
       </c>
       <c r="F266" s="4">
         <v>0</v>
@@ -8524,8 +9319,11 @@
       <c r="H266" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>324</v>
       </c>
@@ -8550,8 +9348,11 @@
       <c r="H267">
         <v>103000</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I267">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>325</v>
       </c>
@@ -8576,8 +9377,11 @@
       <c r="H268">
         <v>770</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I268">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>326</v>
       </c>
@@ -8602,8 +9406,11 @@
       <c r="H269">
         <v>250</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I269">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>327</v>
       </c>
@@ -8628,8 +9435,11 @@
       <c r="H270">
         <v>40</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I270">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>329</v>
       </c>
@@ -8654,8 +9464,11 @@
       <c r="H271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>330</v>
       </c>
@@ -8680,8 +9493,11 @@
       <c r="H272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>331</v>
       </c>
@@ -8706,8 +9522,11 @@
       <c r="H273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>332</v>
       </c>
@@ -8732,8 +9551,11 @@
       <c r="H274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>333</v>
       </c>
@@ -8758,8 +9580,11 @@
       <c r="H275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>334</v>
       </c>
@@ -8784,8 +9609,11 @@
       <c r="H276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>335</v>
       </c>
@@ -8798,20 +9626,23 @@
       <c r="D277">
         <v>0</v>
       </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277" s="5">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>0</v>
+      <c r="E277" s="5">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277" s="5">
+        <v>1</v>
       </c>
       <c r="H277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>336</v>
       </c>
@@ -8824,20 +9655,23 @@
       <c r="D278">
         <v>0</v>
       </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278" s="5">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>0</v>
+      <c r="E278" s="5">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278" s="5">
+        <v>1</v>
       </c>
       <c r="H278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>337</v>
       </c>
@@ -8850,20 +9684,23 @@
       <c r="D279">
         <v>0</v>
       </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279" s="5">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
+      <c r="E279" s="5">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279" s="5">
+        <v>1</v>
       </c>
       <c r="H279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>338</v>
       </c>
@@ -8876,20 +9713,23 @@
       <c r="D280">
         <v>0</v>
       </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280" s="5">
-        <v>1</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
+      <c r="E280" s="5">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280" s="5">
+        <v>1</v>
       </c>
       <c r="H280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>340</v>
       </c>
@@ -8914,8 +9754,11 @@
       <c r="H281">
         <v>8400</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I281">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>341</v>
       </c>
@@ -8940,8 +9783,11 @@
       <c r="H282">
         <v>170</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I282">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>342</v>
       </c>
@@ -8966,8 +9812,11 @@
       <c r="H283">
         <v>70</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I283">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>343</v>
       </c>
@@ -8980,8 +9829,8 @@
       <c r="D284">
         <v>1</v>
       </c>
-      <c r="E284" s="4">
-        <v>0</v>
+      <c r="E284">
+        <v>1</v>
       </c>
       <c r="F284" s="4">
         <v>0</v>
@@ -8992,8 +9841,11 @@
       <c r="H284" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>345</v>
       </c>
@@ -9018,8 +9870,11 @@
       <c r="H285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>346</v>
       </c>
@@ -9044,8 +9899,11 @@
       <c r="H286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>348</v>
       </c>
@@ -9070,8 +9928,11 @@
       <c r="H287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>349</v>
       </c>
@@ -9096,8 +9957,11 @@
       <c r="H288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>350</v>
       </c>
@@ -9122,8 +9986,11 @@
       <c r="H289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>351</v>
       </c>
@@ -9136,8 +10003,8 @@
       <c r="D290">
         <v>1</v>
       </c>
-      <c r="E290" s="4">
-        <v>0</v>
+      <c r="E290">
+        <v>1</v>
       </c>
       <c r="F290" s="4">
         <v>0</v>
@@ -9148,8 +10015,11 @@
       <c r="H290" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>352</v>
       </c>
@@ -9174,8 +10044,11 @@
       <c r="H291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>353</v>
       </c>
@@ -9200,8 +10073,11 @@
       <c r="H292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>355</v>
       </c>
@@ -9226,8 +10102,11 @@
       <c r="H293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>356</v>
       </c>
@@ -9252,8 +10131,11 @@
       <c r="H294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>357</v>
       </c>
@@ -9266,8 +10148,8 @@
       <c r="D295">
         <v>1</v>
       </c>
-      <c r="E295" s="4">
-        <v>0</v>
+      <c r="E295">
+        <v>1</v>
       </c>
       <c r="F295" s="4">
         <v>0</v>
@@ -9278,8 +10160,11 @@
       <c r="H295" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>358</v>
       </c>
@@ -9304,8 +10189,11 @@
       <c r="H296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>359</v>
       </c>
@@ -9330,8 +10218,11 @@
       <c r="H297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>360</v>
       </c>
@@ -9356,8 +10247,11 @@
       <c r="H298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>361</v>
       </c>
@@ -9382,8 +10276,11 @@
       <c r="H299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>362</v>
       </c>
@@ -9396,20 +10293,23 @@
       <c r="D300">
         <v>0</v>
       </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
-      <c r="F300" s="5">
-        <v>1</v>
-      </c>
-      <c r="G300">
-        <v>0</v>
+      <c r="E300" s="5">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300" s="5">
+        <v>1</v>
       </c>
       <c r="H300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>363</v>
       </c>
@@ -9434,8 +10334,11 @@
       <c r="H301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>364</v>
       </c>
@@ -9460,8 +10363,11 @@
       <c r="H302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>365</v>
       </c>
@@ -9486,8 +10392,11 @@
       <c r="H303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>366</v>
       </c>
@@ -9512,8 +10421,11 @@
       <c r="H304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>372</v>
       </c>
@@ -9526,8 +10438,8 @@
       <c r="D305">
         <v>1</v>
       </c>
-      <c r="E305" s="4">
-        <v>0</v>
+      <c r="E305">
+        <v>1</v>
       </c>
       <c r="F305" s="4">
         <v>0</v>
@@ -9538,8 +10450,11 @@
       <c r="H305" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I305" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>373</v>
       </c>
@@ -9564,8 +10479,11 @@
       <c r="H306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>374</v>
       </c>
@@ -9590,8 +10508,11 @@
       <c r="H307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>376</v>
       </c>
@@ -9616,8 +10537,11 @@
       <c r="H308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>382</v>
       </c>
@@ -9642,8 +10566,11 @@
       <c r="H309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>383</v>
       </c>
@@ -9668,8 +10595,11 @@
       <c r="H310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>384</v>
       </c>
@@ -9682,20 +10612,23 @@
       <c r="D311">
         <v>0</v>
       </c>
-      <c r="E311">
-        <v>0</v>
-      </c>
-      <c r="F311" s="5">
+      <c r="E311" s="5">
         <v>100</v>
       </c>
-      <c r="G311">
-        <v>0</v>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311" s="5">
+        <v>100</v>
       </c>
       <c r="H311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>385</v>
       </c>
@@ -9708,20 +10641,23 @@
       <c r="D312">
         <v>0</v>
       </c>
-      <c r="E312">
-        <v>0</v>
-      </c>
-      <c r="F312" s="5">
+      <c r="E312" s="5">
         <v>50</v>
       </c>
-      <c r="G312">
-        <v>0</v>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312" s="5">
+        <v>50</v>
       </c>
       <c r="H312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>386</v>
       </c>
@@ -9734,20 +10670,23 @@
       <c r="D313">
         <v>0</v>
       </c>
-      <c r="E313">
-        <v>0</v>
-      </c>
-      <c r="F313" s="5">
-        <v>1</v>
-      </c>
-      <c r="G313">
-        <v>0</v>
+      <c r="E313" s="5">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313" s="5">
+        <v>1</v>
       </c>
       <c r="H313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>387</v>
       </c>
@@ -9772,8 +10711,11 @@
       <c r="H314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>388</v>
       </c>
@@ -9798,8 +10740,11 @@
       <c r="H315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>389</v>
       </c>
@@ -9812,8 +10757,8 @@
       <c r="D316">
         <v>1</v>
       </c>
-      <c r="E316" s="4">
-        <v>0</v>
+      <c r="E316">
+        <v>1</v>
       </c>
       <c r="F316" s="4">
         <v>0</v>
@@ -9824,8 +10769,11 @@
       <c r="H316" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I316" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>390</v>
       </c>
@@ -9850,8 +10798,11 @@
       <c r="H317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>391</v>
       </c>
@@ -9876,8 +10827,11 @@
       <c r="H318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>398</v>
       </c>
@@ -9902,8 +10856,11 @@
       <c r="H319">
         <v>11400</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I319">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>399</v>
       </c>
@@ -9928,8 +10885,11 @@
       <c r="H320">
         <v>4100</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I320">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>400</v>
       </c>
@@ -9954,8 +10914,11 @@
       <c r="H321">
         <v>1600</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I321">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>401</v>
       </c>
@@ -9980,8 +10943,11 @@
       <c r="H322">
         <v>500</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I322">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>402</v>
       </c>
@@ -10006,8 +10972,11 @@
       <c r="H323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>403</v>
       </c>
@@ -10032,8 +11001,11 @@
       <c r="H324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>404</v>
       </c>
@@ -10046,8 +11018,8 @@
       <c r="D325">
         <v>1</v>
       </c>
-      <c r="E325" s="4">
-        <v>0</v>
+      <c r="E325">
+        <v>1</v>
       </c>
       <c r="F325" s="4">
         <v>0</v>
@@ -10058,8 +11030,11 @@
       <c r="H325" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I325" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>405</v>
       </c>
@@ -10084,8 +11059,11 @@
       <c r="H326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>406</v>
       </c>
@@ -10110,8 +11088,11 @@
       <c r="H327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>410</v>
       </c>
@@ -10136,8 +11117,11 @@
       <c r="H328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>411</v>
       </c>
@@ -10162,8 +11146,11 @@
       <c r="H329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>412</v>
       </c>
@@ -10188,8 +11175,11 @@
       <c r="H330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>416</v>
       </c>
@@ -10214,8 +11204,11 @@
       <c r="H331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>417</v>
       </c>
@@ -10240,8 +11233,11 @@
       <c r="H332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>421</v>
       </c>
@@ -10266,8 +11262,11 @@
       <c r="H333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>422</v>
       </c>
@@ -10292,8 +11291,11 @@
       <c r="H334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>423</v>
       </c>
@@ -10318,8 +11320,11 @@
       <c r="H335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>424</v>
       </c>
@@ -10344,8 +11349,11 @@
       <c r="H336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>425</v>
       </c>
@@ -10370,8 +11378,11 @@
       <c r="H337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>426</v>
       </c>
@@ -10396,8 +11407,11 @@
       <c r="H338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>428</v>
       </c>
@@ -10422,8 +11436,11 @@
       <c r="H339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>429</v>
       </c>
@@ -10448,8 +11465,11 @@
       <c r="H340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>430</v>
       </c>
@@ -10474,8 +11494,11 @@
       <c r="H341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>431</v>
       </c>
@@ -10500,8 +11523,11 @@
       <c r="H342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>432</v>
       </c>
@@ -10526,8 +11552,11 @@
       <c r="H343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>443</v>
       </c>
@@ -10552,8 +11581,11 @@
       <c r="H344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>444</v>
       </c>
@@ -10578,8 +11610,11 @@
       <c r="H345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>446</v>
       </c>
@@ -10604,8 +11639,11 @@
       <c r="H346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>447</v>
       </c>
@@ -10630,8 +11668,11 @@
       <c r="H347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>448</v>
       </c>
@@ -10656,8 +11697,11 @@
       <c r="H348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>451</v>
       </c>
@@ -10682,8 +11726,11 @@
       <c r="H349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>452</v>
       </c>
@@ -10708,8 +11755,11 @@
       <c r="H350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>453</v>
       </c>
@@ -10734,8 +11784,11 @@
       <c r="H351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>454</v>
       </c>
@@ -10760,8 +11813,11 @@
       <c r="H352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>458</v>
       </c>
@@ -10786,8 +11842,11 @@
       <c r="H353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>459</v>
       </c>
@@ -10812,8 +11871,11 @@
       <c r="H354">
         <v>17881</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I354">
+        <v>17881</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>460</v>
       </c>
@@ -10838,8 +11900,11 @@
       <c r="H355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>461</v>
       </c>
@@ -10864,8 +11929,11 @@
       <c r="H356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>462</v>
       </c>
@@ -10890,8 +11958,11 @@
       <c r="H357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>463</v>
       </c>
@@ -10916,8 +11987,11 @@
       <c r="H358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>464</v>
       </c>
@@ -10942,8 +12016,11 @@
       <c r="H359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>465</v>
       </c>
@@ -10968,8 +12045,11 @@
       <c r="H360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>466</v>
       </c>
@@ -10994,8 +12074,11 @@
       <c r="H361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>467</v>
       </c>
@@ -11020,8 +12103,11 @@
       <c r="H362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>468</v>
       </c>
@@ -11046,8 +12132,11 @@
       <c r="H363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>469</v>
       </c>
@@ -11072,8 +12161,11 @@
       <c r="H364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>471</v>
       </c>
@@ -11098,8 +12190,11 @@
       <c r="H365">
         <v>110</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I365">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>472</v>
       </c>
@@ -11124,8 +12219,11 @@
       <c r="H366">
         <v>269167</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I366">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>473</v>
       </c>
@@ -11150,8 +12248,11 @@
       <c r="H367">
         <v>269167</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I367">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>474</v>
       </c>
@@ -11176,8 +12277,11 @@
       <c r="H368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>475</v>
       </c>
@@ -11202,8 +12306,11 @@
       <c r="H369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>476</v>
       </c>
@@ -11228,8 +12335,11 @@
       <c r="H370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>477</v>
       </c>
@@ -11254,8 +12364,11 @@
       <c r="H371">
         <v>269167</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I371">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>478</v>
       </c>
@@ -11280,8 +12393,11 @@
       <c r="H372">
         <v>269167</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I372">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>479</v>
       </c>
@@ -11306,8 +12422,11 @@
       <c r="H373">
         <v>269167</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I373">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>480</v>
       </c>
@@ -11332,8 +12451,11 @@
       <c r="H374">
         <v>1103</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I374">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>482</v>
       </c>
@@ -11358,8 +12480,11 @@
       <c r="H375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>483</v>
       </c>
@@ -11384,8 +12509,11 @@
       <c r="H376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>484</v>
       </c>
@@ -11410,8 +12538,11 @@
       <c r="H377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>485</v>
       </c>
@@ -11436,8 +12567,11 @@
       <c r="H378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>486</v>
       </c>
@@ -11462,8 +12596,11 @@
       <c r="H379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>487</v>
       </c>
@@ -11488,8 +12625,11 @@
       <c r="H380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>488</v>
       </c>
@@ -11514,8 +12654,11 @@
       <c r="H381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>489</v>
       </c>
@@ -11540,8 +12683,11 @@
       <c r="H382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>490</v>
       </c>
@@ -11566,8 +12712,11 @@
       <c r="H383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>491</v>
       </c>
@@ -11592,8 +12741,11 @@
       <c r="H384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>492</v>
       </c>
@@ -11618,8 +12770,11 @@
       <c r="H385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>494</v>
       </c>
@@ -11644,8 +12799,11 @@
       <c r="H386">
         <v>6</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>500</v>
       </c>
@@ -11670,8 +12828,11 @@
       <c r="H387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>501</v>
       </c>
@@ -11696,8 +12857,11 @@
       <c r="H388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>503</v>
       </c>
@@ -11722,8 +12886,11 @@
       <c r="H389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>504</v>
       </c>
@@ -11748,8 +12915,11 @@
       <c r="H390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>505</v>
       </c>
@@ -11774,8 +12944,11 @@
       <c r="H391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>506</v>
       </c>
@@ -11798,6 +12971,9 @@
         <v>0</v>
       </c>
       <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
         <v>0</v>
       </c>
     </row>
